--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2704132.754443007</v>
+        <v>-2707053.999427259</v>
       </c>
     </row>
     <row r="7">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>25.27540019871112</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.94848709386758</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150026</v>
+        <v>14.02109506150083</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.88448735196295</v>
+        <v>32.2114004568032</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>23.38964480609573</v>
       </c>
       <c r="D6" t="n">
-        <v>23.38964480609673</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653512222</v>
+        <v>7.336611653512591</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>34.88448735196295</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>34.88448735196295</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12.71120930970041</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>26.17438373432626</v>
+        <v>13.46317442462584</v>
       </c>
       <c r="H8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>23.65357118422321</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="T8" t="n">
         <v>92.66494928910228</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
         <v>33.84730027516771</v>
@@ -1257,10 +1257,10 @@
         <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.52471914437348</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>60.45947654110314</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>42.24406744395696</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.34335198832046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.9921868125025</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.961303165911258</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>350.5711514667701</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>410.1644063769638</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>286.85186834697</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>88.54452890168409</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>81.97599399093704</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>146.7180781204384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1907,7 +1907,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2056,7 +2056,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2305,7 +2305,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947556</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2375,16 +2375,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2476,25 +2476,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453023</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401418</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,7 +2539,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998809</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T27" t="n">
         <v>189.0833237787849</v>
@@ -2713,25 +2713,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>186.4872700401418</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368232</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3196,16 +3196,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894964</v>
       </c>
       <c r="G35" t="n">
         <v>378.5542040247498</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894972</v>
       </c>
       <c r="G38" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684687</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
         <v>350.3201677200478</v>
@@ -3803,7 +3803,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424843</v>
       </c>
       <c r="T43" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
         <v>220.527440971614</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4189,13 +4189,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612644</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="C5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="D5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="E5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="F5" t="n">
-        <v>42.25301851445822</v>
+        <v>44.95310628734349</v>
       </c>
       <c r="G5" t="n">
-        <v>28.32146625958241</v>
+        <v>31.02155403246767</v>
       </c>
       <c r="H5" t="n">
-        <v>28.32146625958241</v>
+        <v>31.02155403246767</v>
       </c>
       <c r="I5" t="n">
-        <v>28.32146625958241</v>
+        <v>31.02155403246767</v>
       </c>
       <c r="J5" t="n">
-        <v>2.790758988157036</v>
+        <v>31.02155403246767</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928013847</v>
+        <v>5.366676928013144</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645716</v>
+        <v>39.90231940645576</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188490047</v>
+        <v>74.43796188489839</v>
       </c>
       <c r="O5" t="n">
-        <v>98.59809745907907</v>
+        <v>98.59809745907629</v>
       </c>
       <c r="P5" t="n">
-        <v>84.43537517473537</v>
+        <v>84.43537517473202</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="R5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="S5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="T5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="U5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="V5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="W5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="X5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.19851926366169</v>
+        <v>51.89860703654696</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.82738167463072</v>
+        <v>69.06423758570301</v>
       </c>
       <c r="C6" t="n">
-        <v>33.82738167463072</v>
+        <v>45.43833374116186</v>
       </c>
       <c r="D6" t="n">
-        <v>10.20147783008857</v>
+        <v>45.43833374116186</v>
       </c>
       <c r="E6" t="n">
-        <v>10.20147783008857</v>
+        <v>45.43833374116186</v>
       </c>
       <c r="F6" t="n">
-        <v>10.20147783008857</v>
+        <v>45.43833374116186</v>
       </c>
       <c r="G6" t="n">
-        <v>10.20147783008857</v>
+        <v>45.43833374116186</v>
       </c>
       <c r="H6" t="n">
-        <v>10.20147783008857</v>
+        <v>10.20147783008889</v>
       </c>
       <c r="I6" t="n">
-        <v>10.20147783008857</v>
+        <v>10.20147783008889</v>
       </c>
       <c r="J6" t="n">
-        <v>10.20147783008857</v>
+        <v>10.20147783008889</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146660035</v>
+        <v>37.3264014665996</v>
       </c>
       <c r="M6" t="n">
-        <v>71.86204394504367</v>
+        <v>71.86204394504222</v>
       </c>
       <c r="N6" t="n">
-        <v>105.0023069294085</v>
+        <v>106.3976864234848</v>
       </c>
       <c r="O6" t="n">
-        <v>139.5379494078518</v>
+        <v>119.3872152366672</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078518</v>
+        <v>139.537949407849</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.3010934967781</v>
+        <v>104.301093496776</v>
       </c>
       <c r="R6" t="n">
-        <v>104.3010934967781</v>
+        <v>104.301093496776</v>
       </c>
       <c r="S6" t="n">
-        <v>104.3010934967781</v>
+        <v>104.301093496776</v>
       </c>
       <c r="T6" t="n">
-        <v>104.3010934967781</v>
+        <v>104.301093496776</v>
       </c>
       <c r="U6" t="n">
-        <v>69.0642375857044</v>
+        <v>104.301093496776</v>
       </c>
       <c r="V6" t="n">
-        <v>33.82738167463072</v>
+        <v>104.301093496776</v>
       </c>
       <c r="W6" t="n">
-        <v>33.82738167463072</v>
+        <v>104.301093496776</v>
       </c>
       <c r="X6" t="n">
-        <v>33.82738167463072</v>
+        <v>104.301093496776</v>
       </c>
       <c r="Y6" t="n">
-        <v>33.82738167463072</v>
+        <v>104.301093496776</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="L7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="M7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="N7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="O7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="P7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="R7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="S7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="T7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="U7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="V7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="W7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="X7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.790758988157036</v>
+        <v>2.79075898815698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5653832549669</v>
+        <v>65.96442437708579</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5653832549669</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5653832549669</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5653832549669</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="F8" t="n">
-        <v>152.6198825057634</v>
+        <v>46.17931826454857</v>
       </c>
       <c r="G8" t="n">
-        <v>126.181111056949</v>
+        <v>32.58015217906792</v>
       </c>
       <c r="H8" t="n">
         <v>32.58015217906792</v>
@@ -4808,7 +4808,7 @@
         <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940378</v>
+        <v>75.16870670940376</v>
       </c>
       <c r="M8" t="n">
         <v>166.907006505615</v>
@@ -4826,28 +4826,28 @@
         <v>346.7673010107291</v>
       </c>
       <c r="R8" t="n">
-        <v>346.7673010107291</v>
+        <v>253.166342132848</v>
       </c>
       <c r="S8" t="n">
-        <v>346.7673010107291</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="T8" t="n">
-        <v>253.166342132848</v>
+        <v>65.96442437708579</v>
       </c>
       <c r="U8" t="n">
-        <v>253.166342132848</v>
+        <v>65.96442437708579</v>
       </c>
       <c r="V8" t="n">
-        <v>253.166342132848</v>
+        <v>65.96442437708579</v>
       </c>
       <c r="W8" t="n">
-        <v>253.166342132848</v>
+        <v>65.96442437708579</v>
       </c>
       <c r="X8" t="n">
-        <v>253.166342132848</v>
+        <v>65.96442437708579</v>
       </c>
       <c r="Y8" t="n">
-        <v>159.5653832549669</v>
+        <v>65.96442437708579</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228.8043058960295</v>
+        <v>295.1020038920396</v>
       </c>
       <c r="C9" t="n">
-        <v>135.2033470181484</v>
+        <v>201.5010450141585</v>
       </c>
       <c r="D9" t="n">
-        <v>135.2033470181484</v>
+        <v>201.5010450141585</v>
       </c>
       <c r="E9" t="n">
-        <v>135.2033470181484</v>
+        <v>107.9000861362774</v>
       </c>
       <c r="F9" t="n">
-        <v>135.2033470181484</v>
+        <v>107.9000861362774</v>
       </c>
       <c r="G9" t="n">
-        <v>135.2033470181484</v>
+        <v>107.9000861362774</v>
       </c>
       <c r="H9" t="n">
-        <v>41.60238814026729</v>
+        <v>107.9000861362774</v>
       </c>
       <c r="I9" t="n">
         <v>41.60238814026729</v>
@@ -4905,28 +4905,28 @@
         <v>356.1721822163862</v>
       </c>
       <c r="R9" t="n">
-        <v>270.7484666479219</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="S9" t="n">
-        <v>228.8043058960295</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="T9" t="n">
-        <v>228.8043058960295</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="U9" t="n">
-        <v>228.8043058960295</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="V9" t="n">
-        <v>228.8043058960295</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="W9" t="n">
-        <v>228.8043058960295</v>
+        <v>295.1020038920396</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8043058960295</v>
+        <v>295.1020038920396</v>
       </c>
       <c r="Y9" t="n">
-        <v>228.8043058960295</v>
+        <v>295.1020038920396</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1930.094988518961</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C11" t="n">
-        <v>1561.13247157855</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.866772971799</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5036,22 +5036,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2713.136153598409</v>
       </c>
       <c r="W11" t="n">
-        <v>2741.012457539436</v>
+        <v>2360.367498328294</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.546699278356</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y11" t="n">
-        <v>2316.694828583083</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>443.0505103572859</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C13" t="n">
-        <v>443.0505103572859</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5233,16 +5233,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1130.907408038813</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4915543310558</v>
+        <v>1130.907408038813</v>
       </c>
       <c r="X13" t="n">
-        <v>845.4915543310558</v>
+        <v>902.9178571407958</v>
       </c>
       <c r="Y13" t="n">
-        <v>624.6989751875257</v>
+        <v>682.1252779972657</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2256.16599448487</v>
+        <v>2325.545057758604</v>
       </c>
       <c r="C14" t="n">
-        <v>1887.203477544458</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1528.937778937708</v>
+        <v>1598.316842211442</v>
       </c>
       <c r="E14" t="n">
-        <v>1143.149526339463</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>789.0372521306047</v>
+        <v>801.5426848235898</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7297709417525</v>
+        <v>387.2352036347374</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511622</v>
+        <v>97.48584166810113</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5288,40 +5288,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632628</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423757</v>
+        <v>4159.581530673303</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080186</v>
+        <v>3828.518643329732</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810072</v>
+        <v>3475.749988059618</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548992</v>
+        <v>3102.284229798538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2642.765834548992</v>
+        <v>2712.144897822726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277776</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>635.7261923234721</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="C16" t="n">
-        <v>466.7900093955652</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="D16" t="n">
-        <v>466.7900093955652</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="E16" t="n">
-        <v>318.8769158131721</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="F16" t="n">
-        <v>171.9869683152617</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9869683152617</v>
+        <v>167.7844433093961</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152617</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711514</v>
+        <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5467,19 +5467,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306093</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100206</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632456</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X16" t="n">
-        <v>817.3746571537118</v>
+        <v>737.5851851652287</v>
       </c>
       <c r="Y16" t="n">
-        <v>817.3746571537118</v>
+        <v>516.7926060216986</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
@@ -5513,28 +5513,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
         <v>4249.020448755811</v>
@@ -5586,7 +5586,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
@@ -5595,22 +5595,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5671,13 +5671,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5701,10 +5701,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5713,7 +5713,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5738,10 +5738,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5750,10 +5750,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,10 +5762,10 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612703</v>
@@ -5823,7 +5823,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
@@ -5832,16 +5832,16 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1381.83934483395</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.694692760353</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O21" t="n">
         <v>1959.694692760353</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315385</v>
@@ -5908,13 +5908,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5926,10 +5926,10 @@
         <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
         <v>2487.049233352543</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5950,7 +5950,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5972,25 +5972,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162835</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6002,37 +6002,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1551.25253785418</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749445</v>
@@ -6142,7 +6142,7 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042784</v>
@@ -6160,25 +6160,25 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357084</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
@@ -6212,25 +6212,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511689</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951456</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
         <v>2001.21371374674</v>
@@ -6242,25 +6242,25 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
@@ -6300,22 +6300,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>1381.83934483395</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N27" t="n">
-        <v>1959.694692760353</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O27" t="n">
         <v>1959.694692760353</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
         <v>459.5287020443611</v>
@@ -6403,31 +6403,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,49 +6449,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511592</v>
+        <v>84.98040897511598</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076833</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400162</v>
@@ -6500,13 +6500,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749443</v>
@@ -6616,16 +6616,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,22 +6634,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237502</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
@@ -6686,7 +6686,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6701,7 +6701,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,10 +6710,10 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
@@ -6734,16 +6734,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6771,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
         <v>84.98040897511622</v>
@@ -6780,22 +6780,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042765</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443593</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511683</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400161</v>
@@ -6974,7 +6974,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501802</v>
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7023,16 +7023,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042798</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443625</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902799</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352543</v>
@@ -7160,13 +7160,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
@@ -7266,7 +7266,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749444</v>
@@ -7330,13 +7330,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7345,10 +7345,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,19 +7360,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7418,13 +7418,13 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
@@ -7497,19 +7497,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7570,13 +7570,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
@@ -7594,13 +7594,13 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7725,28 +7725,28 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749443</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,10 +7819,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7831,7 +7831,7 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
         <v>2144.901839127668</v>
@@ -7840,10 +7840,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -9325,7 +9325,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415541</v>
       </c>
       <c r="M19" t="n">
         <v>178.5096609094456</v>
@@ -9559,7 +9559,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446522</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9574,7 +9574,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140423</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9808,7 +9808,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658848</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775176</v>
+        <v>65.34295837775366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272128</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272473</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>106.7437663446525</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>280.0447658190702</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.99090544362082</v>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
         <v>53.21989217810253</v>
@@ -22583,10 +22583,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343781</v>
+        <v>1.057650246286161</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3533046710778</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>285.5081910261779</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.8945866677331</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>86.62328620570986</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>248.1763401579167</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>56.30489427494132</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516578</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067864</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>162.3900575150988</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>59.75871370557661</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>78.99157726859872</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19327.21330481902</v>
+        <v>19327.21330481903</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>17049.85494854603</v>
+        <v>17049.85494854604</v>
       </c>
       <c r="F2" t="n">
-        <v>19168.57954878275</v>
+        <v>19168.57954878276</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="H2" t="n">
         <v>20526.04424660711</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660711</v>
       </c>
       <c r="K2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660707</v>
       </c>
-      <c r="L2" t="n">
-        <v>20526.04424660713</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660711</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>20526.04424660708</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>20526.04424660707</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263848</v>
+        <v>56271.05156263732</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945417</v>
+        <v>88049.46972945525</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399347</v>
+        <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963079</v>
+        <v>215052.109696308</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177115</v>
+        <v>25288.16188177122</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799971</v>
+        <v>8978.150740799758</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390373</v>
+        <v>39911.87677390393</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694314</v>
+        <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
         <v>56542.29359578632</v>
       </c>
       <c r="O3" t="n">
-        <v>7.105427357601002e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330698.467725194</v>
+        <v>330698.4677251941</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663264</v>
+        <v>340674.6247663267</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
@@ -26427,37 +26427,37 @@
         <v>14649.95482218994</v>
       </c>
       <c r="F4" t="n">
-        <v>14769.42975388845</v>
+        <v>14769.42975388839</v>
       </c>
       <c r="G4" t="n">
+        <v>45839.31483610848</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45839.31483610847</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45839.31483610845</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45839.31483610844</v>
+      </c>
+      <c r="K4" t="n">
         <v>45839.31483610849</v>
       </c>
-      <c r="H4" t="n">
-        <v>45839.31483610848</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45839.31483610848</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>45839.3148361085</v>
       </c>
-      <c r="K4" t="n">
-        <v>45839.31483610851</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>45839.31483610853</v>
       </c>
-      <c r="M4" t="n">
-        <v>45839.31483610848</v>
-      </c>
       <c r="N4" t="n">
-        <v>45839.31483610847</v>
+        <v>45839.31483610852</v>
       </c>
       <c r="O4" t="n">
+        <v>45839.31483610855</v>
+      </c>
+      <c r="P4" t="n">
         <v>45839.31483610853</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45839.3148361085</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097144</v>
+        <v>43939.64495097138</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,22 +26479,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
@@ -26503,7 +26503,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-666557.0782207787</v>
+        <v>-666676.9613149577</v>
       </c>
       <c r="C6" t="n">
-        <v>-420359.2770333292</v>
+        <v>-420359.2770333283</v>
       </c>
       <c r="D6" t="n">
-        <v>-429247.806700498</v>
+        <v>-429247.8067004991</v>
       </c>
       <c r="E6" t="n">
-        <v>-800376.5412749719</v>
+        <v>-800724.1602047782</v>
       </c>
       <c r="F6" t="n">
-        <v>-303101.9559020206</v>
+        <v>-303237.7023718031</v>
       </c>
       <c r="G6" t="n">
-        <v>-145707.8665734278</v>
+        <v>-145707.8665734279</v>
       </c>
       <c r="H6" t="n">
         <v>-120419.7046916566</v>
       </c>
       <c r="I6" t="n">
-        <v>-120419.7046916567</v>
+        <v>-120419.7046916565</v>
       </c>
       <c r="J6" t="n">
-        <v>-120419.7046916567</v>
+        <v>-120419.7046916566</v>
       </c>
       <c r="K6" t="n">
-        <v>-129397.8554324567</v>
+        <v>-129397.8554324564</v>
       </c>
       <c r="L6" t="n">
-        <v>-160331.5814655604</v>
+        <v>-160331.5814655606</v>
       </c>
       <c r="M6" t="n">
-        <v>-304515.796961088</v>
+        <v>-304515.7969610882</v>
       </c>
       <c r="N6" t="n">
         <v>-176961.998287443</v>
       </c>
       <c r="O6" t="n">
-        <v>-120419.7046916568</v>
+        <v>-120419.7046916567</v>
       </c>
       <c r="P6" t="n">
         <v>-120419.7046916567</v>
@@ -26701,31 +26701,31 @@
         <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221396</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221401</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234907</v>
+        <v>375.7370697234896</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432639</v>
+        <v>49.41884193432537</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067492</v>
+        <v>81.85424904067594</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291324</v>
+        <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268245</v>
+        <v>188.3831700268247</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193713935</v>
+        <v>57.78046193714005</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131906</v>
       </c>
       <c r="F4" t="n">
         <v>230.8536567866602</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196283</v>
+        <v>34.88448735196201</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713936</v>
+        <v>57.78046193714001</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866604</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713935</v>
+        <v>57.78046193714005</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131906</v>
       </c>
       <c r="N4" t="n">
         <v>230.8536567866602</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>126.8312799226412</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27415,10 +27415,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.011615236057619</v>
       </c>
       <c r="P2" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>80.64258426171736</v>
@@ -27430,7 +27430,7 @@
         <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
         <v>251.2407063421153</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27634,13 +27634,13 @@
         <v>324.0053859738347</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412004</v>
+        <v>152.2423081412005</v>
       </c>
       <c r="J5" t="n">
-        <v>27.56863851312442</v>
+        <v>52.84403871183591</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386707</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>24.30411111302885</v>
+        <v>26.97719800818906</v>
       </c>
       <c r="R5" t="n">
-        <v>120.7015430160689</v>
+        <v>120.7015430160692</v>
       </c>
       <c r="S5" t="n">
-        <v>174.599532998008</v>
+        <v>174.5995329980081</v>
       </c>
       <c r="T5" t="n">
         <v>216.4836323873893</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6486962979051</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>149.31885418222</v>
       </c>
       <c r="D6" t="n">
-        <v>124.055420758542</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,13 +27710,13 @@
         <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>104.4300383163915</v>
+        <v>69.54555096442927</v>
       </c>
       <c r="I6" t="n">
-        <v>71.6965687044396</v>
+        <v>71.69656870443967</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804675</v>
+        <v>50.48147365804697</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,10 +27737,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.932648269601273</v>
+        <v>1.932648269602268</v>
       </c>
       <c r="R6" t="n">
-        <v>95.50088170919287</v>
+        <v>95.500881709193</v>
       </c>
       <c r="S6" t="n">
         <v>156.6714117615833</v>
@@ -27749,10 +27749,10 @@
         <v>196.9071591941057</v>
       </c>
       <c r="U6" t="n">
-        <v>191.0037243889567</v>
+        <v>225.8882117409196</v>
       </c>
       <c r="V6" t="n">
-        <v>197.9160997974623</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27792,37 +27792,37 @@
         <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248762</v>
+        <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169798</v>
+        <v>79.09202486169811</v>
       </c>
       <c r="K7" t="n">
-        <v>50.2932622514172</v>
+        <v>50.29326225141742</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385077981</v>
+        <v>34.1501838507801</v>
       </c>
       <c r="M7" t="n">
-        <v>32.71538569773378</v>
+        <v>32.71538569773406</v>
       </c>
       <c r="N7" t="n">
-        <v>24.00059209383119</v>
+        <v>24.00059209383147</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304100944</v>
+        <v>42.68670304100969</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486372</v>
+        <v>55.78036510486395</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119875</v>
+        <v>94.76870410119891</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090976</v>
+        <v>146.8278906090977</v>
       </c>
       <c r="S7" t="n">
-        <v>212.2085986491045</v>
+        <v>212.2085986491046</v>
       </c>
       <c r="T7" t="n">
         <v>225.0505661041825</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>352.5616824613072</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2887906902995</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259874</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
         <v>139.5561335235496</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830774</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612668</v>
+        <v>74.43607637216446</v>
       </c>
       <c r="T8" t="n">
         <v>122.378212846325</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629866</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,10 +27947,10 @@
         <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
-        <v>10.06468283495369</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101604999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>84.5694784127797</v>
       </c>
       <c r="S9" t="n">
-        <v>111.8763837050658</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
         <v>196.197498299121</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>191.2355066198165</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28582,7 +28582,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221503</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
         <v>31.61020235221397</v>
@@ -30523,7 +30523,7 @@
         <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221446</v>
       </c>
       <c r="Y41" t="n">
         <v>31.61020235221397</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782808001</v>
+        <v>1.510500782807997</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193245</v>
+        <v>15.46941614193241</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920554</v>
+        <v>58.23358142920538</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148507</v>
+        <v>128.2018658148504</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511135</v>
+        <v>192.141363951113</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829739</v>
+        <v>238.3683522829733</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792357</v>
+        <v>265.230720579235</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485539</v>
+        <v>264.2975509485532</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693419</v>
+        <v>254.5023887693412</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937693</v>
+        <v>217.2119006937687</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094577</v>
+        <v>163.1170914094572</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806321</v>
+        <v>94.88399479806296</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823737</v>
+        <v>34.42053658823728</v>
       </c>
       <c r="T5" t="n">
-        <v>6.61221717674203</v>
+        <v>6.612217176742012</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246401</v>
+        <v>0.1208400626246398</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688392063</v>
+        <v>0.8081891688392041</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104968</v>
+        <v>7.805405920104946</v>
       </c>
       <c r="I6" t="n">
-        <v>27.8258112955604</v>
+        <v>27.82581129556032</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861994</v>
+        <v>76.35615300861973</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208468</v>
+        <v>130.5048273208464</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318371</v>
+        <v>173.4388671318364</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739813</v>
+        <v>177.0185212739806</v>
       </c>
       <c r="N6" t="n">
-        <v>164.8167251988533</v>
+        <v>166.2261994352955</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964074</v>
+        <v>155.7169806193761</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>154.3286843549179</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644573</v>
+        <v>103.164638464457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477109</v>
+        <v>50.17862225477096</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225455</v>
+        <v>15.01175934225451</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715923</v>
+        <v>3.257569500715914</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521096</v>
+        <v>0.05317034005521082</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210487</v>
+        <v>0.6775586503210468</v>
       </c>
       <c r="H7" t="n">
-        <v>6.02411236376351</v>
+        <v>6.024112363763494</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238209</v>
+        <v>20.37603650238203</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769814</v>
+        <v>47.903396577698</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911818</v>
+        <v>78.71999591911796</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304585</v>
+        <v>100.7344924304582</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498713</v>
+        <v>106.210398249871</v>
       </c>
       <c r="N7" t="n">
-        <v>103.684952371402</v>
+        <v>103.6849523714017</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083335</v>
+        <v>95.7698354108331</v>
       </c>
       <c r="P7" t="n">
-        <v>81.9476389442839</v>
+        <v>81.94763894428367</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824709</v>
+        <v>56.73629752824694</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807187</v>
+        <v>30.46550076807179</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786773</v>
+        <v>11.80799938786769</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099026</v>
+        <v>2.895023324099018</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296633</v>
+        <v>0.03695774456296623</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I14" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N15" t="n">
-        <v>616.0816594412372</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>555.1640776830027</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>554.7018671605765</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>555.1640776830025</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>548.1235910649146</v>
       </c>
       <c r="O24" t="n">
-        <v>555.1640776830027</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I26" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L26" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R26" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -32977,7 +32977,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>554.7018671605765</v>
+        <v>626.873981279922</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T27" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,10 +33102,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K28" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
         <v>342.6725659692048</v>
@@ -33117,22 +33117,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P28" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R28" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I29" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L29" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R29" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33214,7 +33214,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>151.0727449683542</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
         <v>342.6725659692048</v>
@@ -33354,22 +33354,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I32" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L32" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R32" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33451,7 +33451,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1387203886727</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
         <v>342.6725659692048</v>
@@ -33591,22 +33591,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33743,19 +33743,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>554.7018671605765</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33986,10 +33986,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>211.6584993001651</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34135,7 +34135,7 @@
         <v>653.6149895171636</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869759</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M41" t="n">
         <v>902.2459874654296</v>
@@ -34147,7 +34147,7 @@
         <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q41" t="n">
         <v>554.8819566972011</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>591.0665301174799</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34381,10 +34381,10 @@
         <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q44" t="n">
         <v>554.8819566972011</v>
@@ -34445,31 +34445,31 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>457.1748150187223</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312986678</v>
+        <v>2.601937312986024</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765515</v>
+        <v>24.40417734765444</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196295</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="N6" t="n">
-        <v>33.47501311552</v>
+        <v>34.88448735196224</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196295</v>
+        <v>13.12073617493171</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.35427694058762</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R14" t="n">
         <v>107.1851555440239</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N15" t="n">
-        <v>484.7399473579039</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488768</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>412.5678332385582</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817346</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>412.5678332385582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>412.567833238558</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414974</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.653334055307</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>416.7818789815813</v>
       </c>
       <c r="O24" t="n">
-        <v>412.5678332385582</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908735</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P26" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>412.5678332385582</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36768,10 +36768,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641584</v>
+        <v>138.4502995641602</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>8.938711046335936</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P32" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>441.7970083053394</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193538</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>412.5678332385582</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193572</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
@@ -37479,7 +37479,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37634,10 +37634,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>69.06225485572071</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37716,7 +37716,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37783,7 +37783,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
         <v>671.8997542381569</v>
@@ -37795,7 +37795,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227516</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7248180341467</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227516</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>315.040781096704</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
